--- a/biology/Botanique/Avrolles_(pomme)/Avrolles_(pomme).xlsx
+++ b/biology/Botanique/Avrolles_(pomme)/Avrolles_(pomme).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Avrolles est une variété de pommes jaunes veinées de rouge, originaire d'Avrolles, ancienne commune de l'Yonne (aujourd'hui rattachée à Saint-Florentin)[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Avrolles est une variété de pommes jaunes veinées de rouge, originaire d'Avrolles, ancienne commune de l'Yonne (aujourd'hui rattachée à Saint-Florentin).
 </t>
         </is>
       </c>
@@ -511,10 +523,12 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est traditionnellement utilisée pour la fabrication du cidre dans le pays de l'Othe où elle est très répandue[2]. L'Avrolles a été introduite en Normandie, fin des années soixante, pour sa forte acidité qui confère au cidre une bonne conservation[3].
-Elle entre également, avec le sirop de sureau, dans la composition d'un apéritif rosé en Mayenne[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est traditionnellement utilisée pour la fabrication du cidre dans le pays de l'Othe où elle est très répandue. L'Avrolles a été introduite en Normandie, fin des années soixante, pour sa forte acidité qui confère au cidre une bonne conservation.
+Elle entre également, avec le sirop de sureau, dans la composition d'un apéritif rosé en Mayenne.
 </t>
         </is>
       </c>
